--- a/dataPercobaan.xlsx
+++ b/dataPercobaan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95499214ec9b6c66/Documents/TUGAS ONGOING/SMS 4/PRAK SCPK/ProjectAkhir/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95499214ec9b6c66/Documents/TUGAS ONGOING/SMS 4/PRAK SCPK/ProjectAkhir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{6257C2E4-72F0-4E11-B491-2DEF1B678F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA1F1043-F134-4DBB-B09C-6101BC7DF3B2}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{6257C2E4-72F0-4E11-B491-2DEF1B678F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C825BDC7-D94A-45ED-85E3-CC67183CB1A0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1EEDB10A-3F0A-47CB-AF75-9AE3647E878D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>index</t>
   </si>
@@ -67,16 +67,34 @@
   </si>
   <si>
     <t>Dry Cough</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -449,7 +467,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,8 +517,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>14</v>
       </c>
       <c r="B2">
         <v>33</v>
@@ -543,8 +561,8 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>15</v>
       </c>
       <c r="B3">
         <v>17</v>
@@ -587,8 +605,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4">
         <v>35</v>
@@ -631,8 +649,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>17</v>
       </c>
       <c r="B5">
         <v>37</v>
@@ -675,6 +693,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>